--- a/Friedman_Fitness.xlsx
+++ b/Friedman_Fitness.xlsx
@@ -5,28 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferna\Documentos\GitHub\Bioinspirado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoJoseRamirezS\Documents\GitHub\Bioinspirado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8EC45-00C3-4FFB-81AB-752CA0F8C16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434B4FDE-2C38-4F39-A2D9-AB87C91FF2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Otsu" sheetId="3" r:id="rId2"/>
-    <sheet name="Kapur" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Otsu" sheetId="3" r:id="rId3"/>
+    <sheet name="Kapur" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Kapur!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Otsu!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Kapur!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Otsu!$A$2:$L$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="32">
   <si>
     <t>Funcion_Objetivo</t>
   </si>
@@ -113,6 +117,15 @@
   </si>
   <si>
     <t>TSO</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Valores</t>
   </si>
 </sst>
 </file>
@@ -277,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -296,10 +309,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,42 +334,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -615,30 +597,38 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -914,13 +904,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -933,6 +916,41 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -948,8 +966,4660 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Friedman_Fitness.xlsx]Hoja1!TablaDinámica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="triangle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HBA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OPA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BES</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GWO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HHO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-546D-4376-92D2-7CA10F2064A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HBA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OPA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BES</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GWO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HHO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-546D-4376-92D2-7CA10F2064A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HBA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OPA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BES</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GWO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HHO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-546D-4376-92D2-7CA10F2064A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="447697056"/>
+        <c:axId val="448235968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="447697056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Algoritmos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> bioinspirados</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448235968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448235968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> promedio</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="447697056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D7B93C-9EF1-1D1D-7EDC-6F21D4608B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fernando Jose Ramirez Sarmiento" refreshedDate="45321.583982523145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="120" xr:uid="{FC3CF8E7-621A-4AA3-AF33-BDA849068D2D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla1"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="Columna1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="119"/>
+    </cacheField>
+    <cacheField name="Funcion_Objetivo" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Kapur"/>
+        <s v="Otsu"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Imagen" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Dimension" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="9" count="3">
+        <n v="7"/>
+        <n v="9"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Friedman_Stat" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="118.17777777777781" maxValue="181.84444444444441"/>
+    </cacheField>
+    <cacheField name="P_Value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.9442406683562489E-36" maxValue="1.835090748946951E-22"/>
+    </cacheField>
+    <cacheField name="RSA_Rank" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="8" count="2">
+        <n v="8"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="HBA_Rank" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3" count="1">
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="OPA_Rank" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="7" count="4">
+        <n v="6"/>
+        <n v="5"/>
+        <n v="4"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="BES_Rank" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="8" count="3">
+        <n v="7"/>
+        <n v="6"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GWO_Rank" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CSA_Rank" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="6" count="3">
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="HHO_Rank" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="6" count="3">
+        <n v="5"/>
+        <n v="4"/>
+        <n v="6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="TSO_Rank" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="2"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="161.87777777777791"/>
+    <n v="1.2910941389241319E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="145.22222222222231"/>
+    <n v="4.0862814153712526E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="159.22222222222231"/>
+    <n v="4.6759581492097903E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="0"/>
+    <n v="142.48888888888891"/>
+    <n v="1.52940514627539E-27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="119.3333333333334"/>
+    <n v="1.054672049341819E-22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="169.94444444444451"/>
+    <n v="2.5790664309356329E-33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="0"/>
+    <n v="155.91111111111121"/>
+    <n v="2.3245776899218811E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="0"/>
+    <n v="177.16666666666671"/>
+    <n v="7.7239741847242681E-35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="155.42222222222219"/>
+    <n v="2.9453650529377009E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="146.22222222222231"/>
+    <n v="2.5207447771171348E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="11"/>
+    <x v="0"/>
+    <n v="173.22222222222231"/>
+    <n v="5.2504993777852278E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="145.37777777777791"/>
+    <n v="3.7904963344976798E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="145.05555555555549"/>
+    <n v="4.4288399982174674E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="142.8111111111111"/>
+    <n v="1.309093808192641E-27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="144.94444444444451"/>
+    <n v="4.6730134273370021E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="17"/>
+    <x v="0"/>
+    <n v="151.35555555555561"/>
+    <n v="2.107634841711255E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="0"/>
+    <n v="18"/>
+    <x v="0"/>
+    <n v="164.17777777777781"/>
+    <n v="4.232998400731904E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="0"/>
+    <n v="19"/>
+    <x v="0"/>
+    <n v="135.47777777777779"/>
+    <n v="4.4975659336105109E-26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="163.91111111111121"/>
+    <n v="4.8173780432841762E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="165.1"/>
+    <n v="2.7064346481305302E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="151.90000000000009"/>
+    <n v="1.619636448871312E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="0"/>
+    <n v="150.3333333333334"/>
+    <n v="3.455481405878257E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+    <n v="139.04444444444451"/>
+    <n v="8.0590852855928725E-27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="1"/>
+    <n v="157.71111111111111"/>
+    <n v="9.7225948973715826E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="166.5"/>
+    <n v="1.372296969902189E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <n v="150.55555555555549"/>
+    <n v="3.1033868308761531E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <n v="152.92222222222219"/>
+    <n v="9.8771291370827111E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="149.7444444444445"/>
+    <n v="4.5938826039260392E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="1"/>
+    <n v="156.95555555555561"/>
+    <n v="1.4018503988618689E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="2"/>
+    <n v="153.42222222222219"/>
+    <n v="7.7545165116232484E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="151.22222222222231"/>
+    <n v="2.2480407802191219E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="1"/>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="160.97777777777779"/>
+    <n v="1.9971587692907461E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="1"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="163.3111111111111"/>
+    <n v="6.4441608432340062E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="1"/>
+    <n v="13"/>
+    <x v="1"/>
+    <n v="161.97777777777779"/>
+    <n v="1.230000711710978E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="1"/>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="146.7444444444445"/>
+    <n v="1.958606989708866E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="1"/>
+    <n v="14"/>
+    <x v="1"/>
+    <n v="154.8000000000001"/>
+    <n v="3.9806506883568758E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="1"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="165.40000000000009"/>
+    <n v="2.3399170488349009E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="17"/>
+    <x v="0"/>
+    <n v="144.38888888888891"/>
+    <n v="6.1111493481405133E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="1"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="158.53333333333339"/>
+    <n v="6.5284911915413004E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="1"/>
+    <n v="18"/>
+    <x v="0"/>
+    <n v="162.19999999999999"/>
+    <n v="1.104384954129844E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="1"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="148.88888888888891"/>
+    <n v="6.9474301821275212E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="1"/>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="152.26666666666671"/>
+    <n v="1.3563754453593891E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="1"/>
+    <n v="19"/>
+    <x v="1"/>
+    <n v="155.56666666666669"/>
+    <n v="2.7464326080603652E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="137.65555555555559"/>
+    <n v="1.574483150174108E-26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="146.76666666666671"/>
+    <n v="1.937688478594453E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="140.71111111111111"/>
+    <n v="3.6068191238031024E-27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="131.8000000000001"/>
+    <n v="2.6434161033957518E-25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="146.1444444444445"/>
+    <n v="2.6172691516410808E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="119.12222222222231"/>
+    <n v="1.1669967939483369E-22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="1"/>
+    <n v="155.52222222222221"/>
+    <n v="2.80616830837523E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <n v="133.92222222222219"/>
+    <n v="9.5150491747349795E-26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <n v="137.45555555555561"/>
+    <n v="1.7338517310519129E-26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="148.84444444444441"/>
+    <n v="7.0983173664073501E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="1"/>
+    <n v="123.54444444444449"/>
+    <n v="1.3986691624271249E-23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="2"/>
+    <n v="156.18888888888901"/>
+    <n v="2.0320441603231861E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="1"/>
+    <n v="118.17777777777781"/>
+    <n v="1.835090748946951E-22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <n v="155.58888888888899"/>
+    <n v="2.7170431148865341E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="151.8000000000001"/>
+    <n v="1.6999131555319671E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="0"/>
+    <n v="11"/>
+    <x v="2"/>
+    <n v="176.34444444444441"/>
+    <n v="1.151836859031358E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="0"/>
+    <n v="12"/>
+    <x v="2"/>
+    <n v="145.93333333333339"/>
+    <n v="2.8982956970844758E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="0"/>
+    <n v="12"/>
+    <x v="1"/>
+    <n v="129.34444444444441"/>
+    <n v="8.6154615044886138E-25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <x v="0"/>
+    <n v="13"/>
+    <x v="2"/>
+    <n v="147.08888888888899"/>
+    <n v="1.6582987214802739E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <x v="0"/>
+    <n v="13"/>
+    <x v="1"/>
+    <n v="144.02222222222221"/>
+    <n v="7.2949348738373868E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <x v="0"/>
+    <n v="14"/>
+    <x v="2"/>
+    <n v="136.12222222222229"/>
+    <n v="3.2969641455253249E-26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <x v="0"/>
+    <n v="14"/>
+    <x v="1"/>
+    <n v="131.48888888888891"/>
+    <n v="3.070406081464901E-25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="0"/>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="150.41111111111121"/>
+    <n v="3.3279239715445961E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <x v="0"/>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="135.6"/>
+    <n v="4.2403513030231152E-26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <x v="0"/>
+    <n v="17"/>
+    <x v="2"/>
+    <n v="143.25555555555559"/>
+    <n v="1.0562995468185701E-27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <x v="0"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="146.08888888888899"/>
+    <n v="2.6884687731841712E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <x v="0"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="142.6333333333333"/>
+    <n v="1.426400167589855E-27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="0"/>
+    <n v="18"/>
+    <x v="1"/>
+    <n v="133.53333333333339"/>
+    <n v="1.147485852460912E-25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <x v="0"/>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="142.02222222222221"/>
+    <n v="1.915784196265237E-27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <x v="0"/>
+    <n v="19"/>
+    <x v="1"/>
+    <n v="148.40000000000009"/>
+    <n v="8.7995900746985112E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="175.28888888888889"/>
+    <n v="1.923791538895667E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="177.22222222222231"/>
+    <n v="7.5181956770676869E-35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="147.26666666666671"/>
+    <n v="1.521781681514644E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="155"/>
+    <n v="3.6133353219062807E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="162.94444444444451"/>
+    <n v="7.6979782398318497E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="147.03333333333339"/>
+    <n v="1.703420831773863E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="158.58888888888899"/>
+    <n v="6.3551334289861709E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="143.02222222222221"/>
+    <n v="1.1822512809520039E-27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="179.88888888888891"/>
+    <n v="2.0563030925821349E-35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="2"/>
+    <n v="172.3111111111111"/>
+    <n v="8.173098098497072E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="1"/>
+    <n v="174.65555555555559"/>
+    <n v="2.6169763561003092E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="0"/>
+    <n v="142.1888888888889"/>
+    <n v="1.7677088374904049E-27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="0"/>
+    <n v="164.26666666666671"/>
+    <n v="4.0544001402807822E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="180.91111111111121"/>
+    <n v="1.2508294135951601E-35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="1"/>
+    <n v="165.18888888888901"/>
+    <n v="2.5922259095842861E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="144.3000000000001"/>
+    <n v="6.3791907638892379E-28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="2"/>
+    <n v="158.7444444444445"/>
+    <n v="5.8938240241823004E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="1"/>
+    <n v="153.52222222222221"/>
+    <n v="7.3881920147842767E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="151.8333333333334"/>
+    <n v="1.6727218172512861E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="0"/>
+    <n v="163.95555555555561"/>
+    <n v="4.7146611618324071E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="2"/>
+    <n v="173.71111111111111"/>
+    <n v="4.1406092511558698E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="1"/>
+    <n v="161.6444444444445"/>
+    <n v="1.44570254966005E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="1"/>
+    <n v="12"/>
+    <x v="2"/>
+    <n v="162.78888888888889"/>
+    <n v="8.3010102224112645E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <x v="1"/>
+    <n v="155.44444444444451"/>
+    <n v="2.913847731481407E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="1"/>
+    <n v="13"/>
+    <x v="2"/>
+    <n v="158.92222222222219"/>
+    <n v="5.4074567404734731E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="1"/>
+    <n v="14"/>
+    <x v="2"/>
+    <n v="166.4666666666667"/>
+    <n v="1.394670406031027E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="172.44444444444451"/>
+    <n v="7.6606171926568406E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="170.66666666666671"/>
+    <n v="1.8162847352435559E-33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="1"/>
+    <n v="162.72222222222231"/>
+    <n v="8.5736982973418148E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="1"/>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="153.88888888888891"/>
+    <n v="6.186907934163062E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="156.26666666666671"/>
+    <n v="1.9569398776087721E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="1"/>
+    <n v="17"/>
+    <x v="2"/>
+    <n v="171.8333333333334"/>
+    <n v="1.0307548766888771E-33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="1"/>
+    <n v="18"/>
+    <x v="1"/>
+    <n v="154.3000000000001"/>
+    <n v="5.0706174024608067E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="1"/>
+    <n v="19"/>
+    <x v="0"/>
+    <n v="154.28888888888889"/>
+    <n v="5.0979599916454647E-30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="1"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="174.52222222222221"/>
+    <n v="2.7921139497483249E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <x v="1"/>
+    <n v="20"/>
+    <x v="2"/>
+    <n v="165.07777777777781"/>
+    <n v="2.7357642569296738E-32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="1"/>
+    <n v="20"/>
+    <x v="1"/>
+    <n v="161.93333333333339"/>
+    <n v="1.256788216264022E-31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="2"/>
+    <n v="150.8333333333334"/>
+    <n v="2.7132628415579838E-29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="2"/>
+    <n v="172.7"/>
+    <n v="6.7664311548668792E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="1"/>
+    <n v="175.75555555555559"/>
+    <n v="1.533473399722053E-34"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="175.52222222222221"/>
+    <n v="1.717584316931805E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="1"/>
+    <n v="168.84444444444441"/>
+    <n v="4.3990379286190191E-33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="0"/>
+    <n v="11"/>
+    <x v="1"/>
+    <n v="181.84444444444441"/>
+    <n v="7.9442406683562489E-36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="174.56666666666669"/>
+    <n v="2.732470156201156E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <n v="173.15555555555559"/>
+    <n v="5.4233047270393958E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="2"/>
+    <n v="173.25555555555559"/>
+    <n v="5.1661719181835553E-34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="1"/>
+    <n v="177.44444444444451"/>
+    <n v="6.7484467973623339E-35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D740384-4528-41EC-9D07-CECBB0B6530D}" name="TablaDinámica1" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="8">
+    <dataField name="RSA" fld="6" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="HBA" fld="7" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="OPA" fld="8" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="BES" fld="9" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="GWO" fld="10" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="CSA" fld="11" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="HHO" fld="12" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="TSO" fld="13" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="24">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E26DC0D6-4912-4D8B-9A6E-344C025ACE62}" name="Tabla1" displayName="Tabla1" ref="A1:N121" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E26DC0D6-4912-4D8B-9A6E-344C025ACE62}" name="Tabla1" displayName="Tabla1" ref="A1:N121" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:N121" xr:uid="{E26DC0D6-4912-4D8B-9A6E-344C025ACE62}">
     <filterColumn colId="1">
       <filters>
@@ -961,43 +5631,43 @@
     <sortCondition ref="K1:K121"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00244495-C454-4E08-A38E-2766719D3C4B}" name="Columna1" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{85A9759A-E458-4D7F-81C3-A92116FEA8F3}" name="Funcion_Objetivo" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{52D32D96-C4BA-43D7-B971-C9A25498B793}" name="Imagen" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{826AD6BC-27EE-4CE7-A31A-B50E6A580391}" name="Dimension" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{0B738A5A-252D-49B6-AB5F-512C013A139F}" name="Friedman_Stat" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{83E3B741-B7D5-4360-8820-C331EF1F2583}" name="P_Value" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{6D8086D6-0E99-42B2-80B0-F6CF76AFF7AE}" name="RSA_Rank" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{2A4F178C-85C4-4658-9FBD-9E1430AD380C}" name="HBA_Rank" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{48739324-B948-4DD5-AEC0-CCEE10E3B84D}" name="OPA_Rank" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{CB3B6A3C-F002-4276-93FD-9CD0AABB0BD9}" name="BES_Rank" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{9A3FAF40-C802-4126-9189-447968D3D032}" name="GWO_Rank" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{89B581EA-0A87-4BD3-83A3-1DD53A93FF3A}" name="CSA_Rank" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{BF151427-AE6A-4DB6-B8DF-55DB887D54C9}" name="HHO_Rank" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{B037CCDC-9BE2-4EC2-80EC-A832C4222C0A}" name="TSO_Rank" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00244495-C454-4E08-A38E-2766719D3C4B}" name="Columna1" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{85A9759A-E458-4D7F-81C3-A92116FEA8F3}" name="Funcion_Objetivo" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{52D32D96-C4BA-43D7-B971-C9A25498B793}" name="Imagen" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{826AD6BC-27EE-4CE7-A31A-B50E6A580391}" name="Dimension" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{0B738A5A-252D-49B6-AB5F-512C013A139F}" name="Friedman_Stat" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{83E3B741-B7D5-4360-8820-C331EF1F2583}" name="P_Value" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{6D8086D6-0E99-42B2-80B0-F6CF76AFF7AE}" name="RSA_Rank" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{2A4F178C-85C4-4658-9FBD-9E1430AD380C}" name="HBA_Rank" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{48739324-B948-4DD5-AEC0-CCEE10E3B84D}" name="OPA_Rank" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{CB3B6A3C-F002-4276-93FD-9CD0AABB0BD9}" name="BES_Rank" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{9A3FAF40-C802-4126-9189-447968D3D032}" name="GWO_Rank" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{89B581EA-0A87-4BD3-83A3-1DD53A93FF3A}" name="CSA_Rank" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{BF151427-AE6A-4DB6-B8DF-55DB887D54C9}" name="HHO_Rank" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{B037CCDC-9BE2-4EC2-80EC-A832C4222C0A}" name="TSO_Rank" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A5771D84-77BA-4C0E-9D13-51B7C337EB61}" name="Tabla4" displayName="Tabla4" ref="A2:L62" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A5771D84-77BA-4C0E-9D13-51B7C337EB61}" name="Tabla4" displayName="Tabla4" ref="A2:L62" totalsRowShown="0" headerRowDxfId="14">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L62">
     <sortCondition ref="A2:A62"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{9693B938-28EA-4806-901B-856C2E406ABE}" name="Imagen" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{1179AC5F-A032-4ADC-B678-8D501B33B43F}" name="Dimension" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{5167C32B-ADDD-4093-B22B-9D28DFD0D6C8}" name="Friedman_Stat" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C49F90F9-3C92-4171-B2D1-76D3303456EC}" name="P_Value" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{CBF72D05-2237-45C0-9047-F805D4AEBD0B}" name="RSA_Rank" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{6524DA09-943A-4AF6-8C2F-E989AB2C2DC0}" name="HBA_Rank" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{FE66A76C-751C-445E-A73D-9CBAEBDA1102}" name="OPA_Rank" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{6016A73B-A701-44C9-9C28-3E876F5BA675}" name="BES_Rank" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{BF748C6E-E7D0-402B-8C1D-5D1D405F5650}" name="GWO_Rank" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{28B1883A-C9DF-4072-A0FE-E5C02616A8EA}" name="CSA_Rank" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{AD00F8E0-FBA1-49F2-80DB-115B0E1768D4}" name="HHO_Rank" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{19C698E1-FB6C-4649-9F46-51BB2FB43A3B}" name="TSO_Rank" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{9693B938-28EA-4806-901B-856C2E406ABE}" name="Imagen" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1179AC5F-A032-4ADC-B678-8D501B33B43F}" name="Dimension" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{5167C32B-ADDD-4093-B22B-9D28DFD0D6C8}" name="Friedman_Stat" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C49F90F9-3C92-4171-B2D1-76D3303456EC}" name="P_Value" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{CBF72D05-2237-45C0-9047-F805D4AEBD0B}" name="RSA_Rank" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{6524DA09-943A-4AF6-8C2F-E989AB2C2DC0}" name="HBA_Rank" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{FE66A76C-751C-445E-A73D-9CBAEBDA1102}" name="OPA_Rank" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{6016A73B-A701-44C9-9C28-3E876F5BA675}" name="BES_Rank" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BF748C6E-E7D0-402B-8C1D-5D1D405F5650}" name="GWO_Rank" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{28B1883A-C9DF-4072-A0FE-E5C02616A8EA}" name="CSA_Rank" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{AD00F8E0-FBA1-49F2-80DB-115B0E1768D4}" name="HHO_Rank" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{19C698E1-FB6C-4649-9F46-51BB2FB43A3B}" name="TSO_Rank" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1287,31 +5957,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB6E888-1EEB-42DC-B321-812EFA6EA15F}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6.05</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5.9</v>
+      </c>
+      <c r="D7" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6.0166666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6.9</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6.9</v>
+      </c>
+      <c r="D8" s="12">
+        <v>6.9</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="12">
+        <v>4.45</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4.55</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.4833333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1.45</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1.45</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection sqref="A1:N111"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H22" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="13.76953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="11.31640625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.58984375" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="11" width="12.40625" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +6222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1399,7 +6266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1443,7 +6310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1487,7 +6354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1531,7 +6398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1575,7 +6442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1619,7 +6486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1663,7 +6530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1707,7 +6574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1751,7 +6618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1795,7 +6662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1839,7 +6706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1883,7 +6750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1927,7 +6794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1971,7 +6838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2015,7 +6882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2059,7 +6926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2103,7 +6970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2147,7 +7014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>23</v>
       </c>
@@ -2191,7 +7058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>25</v>
       </c>
@@ -2235,7 +7102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>27</v>
       </c>
@@ -2279,7 +7146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>29</v>
       </c>
@@ -2323,7 +7190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>30</v>
       </c>
@@ -2367,7 +7234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>31</v>
       </c>
@@ -2411,7 +7278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>32</v>
       </c>
@@ -2455,7 +7322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>33</v>
       </c>
@@ -2499,7 +7366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>34</v>
       </c>
@@ -2543,7 +7410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>39</v>
       </c>
@@ -2587,7 +7454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>40</v>
       </c>
@@ -2631,7 +7498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>48</v>
       </c>
@@ -2675,7 +7542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>49</v>
       </c>
@@ -2719,7 +7586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>53</v>
       </c>
@@ -2763,7 +7630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>56</v>
       </c>
@@ -2807,7 +7674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>58</v>
       </c>
@@ -2851,7 +7718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>59</v>
       </c>
@@ -2895,7 +7762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>61</v>
       </c>
@@ -2939,7 +7806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>65</v>
       </c>
@@ -2983,7 +7850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>68</v>
       </c>
@@ -3027,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>70</v>
       </c>
@@ -3071,7 +7938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>71</v>
       </c>
@@ -3115,7 +7982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>72</v>
       </c>
@@ -3159,7 +8026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>75</v>
       </c>
@@ -3203,7 +8070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>76</v>
       </c>
@@ -3247,7 +8114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>80</v>
       </c>
@@ -3291,7 +8158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>81</v>
       </c>
@@ -3335,7 +8202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>82</v>
       </c>
@@ -3379,7 +8246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>83</v>
       </c>
@@ -3423,7 +8290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>84</v>
       </c>
@@ -3467,7 +8334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>85</v>
       </c>
@@ -3511,7 +8378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>87</v>
       </c>
@@ -3555,7 +8422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>88</v>
       </c>
@@ -3599,7 +8466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>89</v>
       </c>
@@ -3643,7 +8510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>92</v>
       </c>
@@ -3687,7 +8554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>93</v>
       </c>
@@ -3731,7 +8598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>96</v>
       </c>
@@ -3775,7 +8642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>97</v>
       </c>
@@ -3819,7 +8686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>98</v>
       </c>
@@ -3863,7 +8730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>99</v>
       </c>
@@ -3907,7 +8774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>100</v>
       </c>
@@ -3951,7 +8818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>102</v>
       </c>
@@ -3995,7 +8862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>103</v>
       </c>
@@ -4039,7 +8906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>104</v>
       </c>
@@ -4083,7 +8950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>105</v>
       </c>
@@ -4127,7 +8994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>106</v>
       </c>
@@ -4171,7 +9038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>107</v>
       </c>
@@ -4215,7 +9082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>110</v>
       </c>
@@ -4259,7 +9126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>111</v>
       </c>
@@ -4303,7 +9170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>112</v>
       </c>
@@ -4347,7 +9214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>113</v>
       </c>
@@ -4391,7 +9258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>114</v>
       </c>
@@ -4435,7 +9302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>115</v>
       </c>
@@ -4479,7 +9346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>116</v>
       </c>
@@ -4523,7 +9390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>117</v>
       </c>
@@ -4567,7 +9434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>14</v>
       </c>
@@ -4611,7 +9478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>19</v>
       </c>
@@ -4655,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>20</v>
       </c>
@@ -4699,7 +9566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>21</v>
       </c>
@@ -4743,7 +9610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>22</v>
       </c>
@@ -4787,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>24</v>
       </c>
@@ -4831,7 +9698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>26</v>
       </c>
@@ -4875,7 +9742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -4919,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>35</v>
       </c>
@@ -4963,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>36</v>
       </c>
@@ -5007,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>37</v>
       </c>
@@ -5051,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>38</v>
       </c>
@@ -5095,7 +9962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>41</v>
       </c>
@@ -5139,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42</v>
       </c>
@@ -5183,7 +10050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43</v>
       </c>
@@ -5227,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44</v>
       </c>
@@ -5271,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45</v>
       </c>
@@ -5315,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>46</v>
       </c>
@@ -5359,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>47</v>
       </c>
@@ -5403,7 +10270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>50</v>
       </c>
@@ -5447,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>51</v>
       </c>
@@ -5491,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>52</v>
       </c>
@@ -5535,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>54</v>
       </c>
@@ -5579,7 +10446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>55</v>
       </c>
@@ -5623,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>57</v>
       </c>
@@ -5667,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>60</v>
       </c>
@@ -5711,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>62</v>
       </c>
@@ -5755,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>63</v>
       </c>
@@ -5799,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>64</v>
       </c>
@@ -5843,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>66</v>
       </c>
@@ -5887,7 +10754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>67</v>
       </c>
@@ -5931,7 +10798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>69</v>
       </c>
@@ -5975,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>73</v>
       </c>
@@ -6019,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>74</v>
       </c>
@@ -6063,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>77</v>
       </c>
@@ -6107,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>78</v>
       </c>
@@ -6151,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>79</v>
       </c>
@@ -6195,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>86</v>
       </c>
@@ -6239,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>90</v>
       </c>
@@ -6283,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>91</v>
       </c>
@@ -6327,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>94</v>
       </c>
@@ -6371,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>95</v>
       </c>
@@ -6415,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>101</v>
       </c>
@@ -6459,7 +11326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>108</v>
       </c>
@@ -6503,7 +11370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>109</v>
       </c>
@@ -6547,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -6591,7 +11458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>119</v>
       </c>
@@ -6643,73 +11510,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FBF78A-734A-4F6C-951B-88E5FAFAA4F3}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection sqref="A1:L62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6747,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6785,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -6823,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -6861,7 +11728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -6899,7 +11766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -6937,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -6975,7 +11842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -7013,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -7051,7 +11918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -7089,7 +11956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -7127,7 +11994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -7165,7 +12032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -7203,7 +12070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -7241,7 +12108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -7279,7 +12146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -7317,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -7355,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -7393,7 +12260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -7431,7 +12298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -7469,7 +12336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -7507,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -7545,7 +12412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -7583,7 +12450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -7621,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -7659,7 +12526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>9</v>
       </c>
@@ -7697,7 +12564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -7735,7 +12602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -7773,7 +12640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -7811,7 +12678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -7849,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -7887,7 +12754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -7925,7 +12792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>11</v>
       </c>
@@ -7963,7 +12830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>12</v>
       </c>
@@ -8001,7 +12868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -8039,7 +12906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -8077,7 +12944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -8115,7 +12982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -8153,7 +13020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -8191,7 +13058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>14</v>
       </c>
@@ -8229,7 +13096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -8267,7 +13134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>14</v>
       </c>
@@ -8305,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>15</v>
       </c>
@@ -8343,7 +13210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -8381,7 +13248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>15</v>
       </c>
@@ -8419,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>16</v>
       </c>
@@ -8457,7 +13324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
@@ -8495,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>16</v>
       </c>
@@ -8533,7 +13400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>17</v>
       </c>
@@ -8571,7 +13438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>17</v>
       </c>
@@ -8609,7 +13476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>17</v>
       </c>
@@ -8647,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>18</v>
       </c>
@@ -8685,7 +13552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>18</v>
       </c>
@@ -8723,7 +13590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>18</v>
       </c>
@@ -8761,7 +13628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>19</v>
       </c>
@@ -8799,7 +13666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>19</v>
       </c>
@@ -8837,7 +13704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>19</v>
       </c>
@@ -8875,7 +13742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>20</v>
       </c>
@@ -8913,7 +13780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>20</v>
       </c>
@@ -8951,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>20</v>
       </c>
@@ -9000,7 +13867,7 @@
     <mergeCell ref="E1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:L62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9008,7 +13875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA3EC78-2E99-4F46-B2DF-907BD13063ED}">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -9016,76 +13883,76 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.04296875" customWidth="1"/>
-    <col min="6" max="6" width="11.31640625" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" customWidth="1"/>
-    <col min="10" max="10" width="11.04296875" customWidth="1"/>
-    <col min="11" max="11" width="11.58984375" customWidth="1"/>
-    <col min="12" max="12" width="11.04296875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9123,7 +13990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -9161,7 +14028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -9199,7 +14066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -9237,7 +14104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -9275,7 +14142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -9313,7 +14180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -9351,7 +14218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -9389,7 +14256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -9427,7 +14294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -9465,7 +14332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -9503,7 +14370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -9541,7 +14408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -9579,7 +14446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -9617,7 +14484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -9655,7 +14522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -9693,7 +14560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -9731,7 +14598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -9769,7 +14636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -9807,7 +14674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -9845,7 +14712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -9883,7 +14750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -9921,7 +14788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -9959,7 +14826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -9997,7 +14864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -10035,7 +14902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>9</v>
       </c>
@@ -10073,7 +14940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -10111,7 +14978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -10149,7 +15016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -10187,7 +15054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -10225,7 +15092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -10263,7 +15130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -10301,7 +15168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>11</v>
       </c>
@@ -10339,7 +15206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>12</v>
       </c>
@@ -10377,7 +15244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -10415,7 +15282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -10453,7 +15320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -10491,7 +15358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -10529,7 +15396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -10567,7 +15434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>14</v>
       </c>
@@ -10605,7 +15472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -10643,7 +15510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>14</v>
       </c>
@@ -10681,7 +15548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>15</v>
       </c>
@@ -10719,7 +15586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -10757,7 +15624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>15</v>
       </c>
@@ -10795,7 +15662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>16</v>
       </c>
@@ -10833,7 +15700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
@@ -10871,7 +15738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>16</v>
       </c>
@@ -10909,7 +15776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>17</v>
       </c>
@@ -10947,7 +15814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>17</v>
       </c>
@@ -10985,7 +15852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>17</v>
       </c>
@@ -11023,7 +15890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>18</v>
       </c>
@@ -11061,7 +15928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>18</v>
       </c>
@@ -11099,7 +15966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>18</v>
       </c>
@@ -11137,7 +16004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>19</v>
       </c>
@@ -11175,7 +16042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>19</v>
       </c>
@@ -11213,7 +16080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>19</v>
       </c>
@@ -11251,7 +16118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>20</v>
       </c>
@@ -11289,7 +16156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>20</v>
       </c>
@@ -11327,7 +16194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>20</v>
       </c>
@@ -11371,7 +16238,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:L62">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Friedman_Fitness.xlsx
+++ b/Friedman_Fitness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoJoseRamirezS\Documents\GitHub\Bioinspirado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434B4FDE-2C38-4F39-A2D9-AB87C91FF2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ECE0D6-7227-4474-8D44-2A571A370A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,13 +310,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1795,6 +1794,177 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -5244,7 +5414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D740384-4528-41EC-9D07-CECBB0B6530D}" name="TablaDinámica1" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D740384-4528-41EC-9D07-CECBB0B6530D}" name="TablaDinámica1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -5340,7 +5510,7 @@
     <dataField name="HHO" fld="12" subtotal="average" baseField="3" baseItem="0"/>
     <dataField name="TSO" fld="13" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
-  <chartFormats count="24">
+  <chartFormats count="27">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5598,6 +5768,42 @@
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="7"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="2"/>
@@ -5961,7 +6167,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5982,7 +6188,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5990,12 +6196,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B4">
@@ -6012,138 +6218,138 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="12">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>6.05</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>5.9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7">
         <v>6.1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7">
         <v>6.0166666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>6.9</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>6.9</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8">
         <v>6.9</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8">
         <v>6.9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>1.55</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>1.65</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <v>1.55</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9">
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>4.45</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10">
         <v>4.7</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>4.55</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11">
         <v>4.3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11">
         <v>4.4833333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>1.45</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <v>1.35</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12">
         <v>1.45</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12">
         <v>1.4166666666666667</v>
       </c>
     </row>
@@ -6157,7 +6363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
@@ -11521,22 +11727,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -13897,22 +14103,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">

--- a/Friedman_Fitness.xlsx
+++ b/Friedman_Fitness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoJoseRamirezS\Documents\GitHub\Bioinspirado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ECE0D6-7227-4474-8D44-2A571A370A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A3D85-4199-4752-98C6-010505F4883E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -5414,7 +5414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D740384-4528-41EC-9D07-CECBB0B6530D}" name="TablaDinámica1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D740384-4528-41EC-9D07-CECBB0B6530D}" name="TablaDinámica1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
